--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="320" yWindow="340" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1-12-2018" sheetId="77" r:id="rId1"/>
@@ -13547,8 +13547,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14075,8 +14075,12 @@
       <c r="D16" s="158">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
+      <c r="E16" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="59">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="G16" s="59"/>
       <c r="H16" s="58"/>
       <c r="I16" s="58"/>
@@ -14084,13 +14088,13 @@
       <c r="K16" s="322"/>
       <c r="L16" s="100">
         <f t="shared" si="0"/>
-        <v>-0.33333333333333331</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="M16" s="75"/>
       <c r="N16" s="101"/>
       <c r="O16" s="100">
         <f t="shared" si="1"/>
-        <v>-0.33333333333333331</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="P16" s="40"/>
       <c r="R16" s="2"/>
@@ -14212,11 +14216,11 @@
       </c>
       <c r="P20" s="155">
         <f>SUM(O14:O20)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -14402,11 +14406,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O9:O23)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -13547,8 +13547,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14081,20 +14081,22 @@
       <c r="F16" s="59">
         <v>0.52083333333333337</v>
       </c>
-      <c r="G16" s="59"/>
+      <c r="G16" s="59">
+        <v>0.6875</v>
+      </c>
       <c r="H16" s="58"/>
       <c r="I16" s="58"/>
       <c r="J16" s="58"/>
       <c r="K16" s="322"/>
       <c r="L16" s="100">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M16" s="75"/>
       <c r="N16" s="101"/>
       <c r="O16" s="100">
         <f t="shared" si="1"/>
-        <v>0.16666666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P16" s="40"/>
       <c r="R16" s="2"/>
@@ -14107,7 +14109,9 @@
       <c r="C17" s="63">
         <v>43229</v>
       </c>
-      <c r="D17" s="158"/>
+      <c r="D17" s="158">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="E17" s="59"/>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
@@ -14117,13 +14121,13 @@
       <c r="K17" s="322"/>
       <c r="L17" s="100">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="M17" s="75"/>
       <c r="N17" s="101"/>
       <c r="O17" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="P17" s="40"/>
       <c r="R17" s="2"/>
@@ -14216,11 +14220,11 @@
       </c>
       <c r="P20" s="155">
         <f>SUM(O14:O20)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -14406,11 +14410,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O9:O23)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -13548,7 +13548,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14112,7 +14112,9 @@
       <c r="D17" s="158">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E17" s="59"/>
+      <c r="E17" s="59">
+        <v>0.5</v>
+      </c>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="58"/>
@@ -14121,13 +14123,13 @@
       <c r="K17" s="322"/>
       <c r="L17" s="100">
         <f t="shared" si="0"/>
-        <v>-0.33333333333333331</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="M17" s="75"/>
       <c r="N17" s="101"/>
       <c r="O17" s="100">
         <f t="shared" si="1"/>
-        <v>-0.33333333333333331</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="P17" s="40"/>
       <c r="R17" s="2"/>
@@ -14220,11 +14222,11 @@
       </c>
       <c r="P20" s="155">
         <f>SUM(O14:O20)</f>
-        <v>0.33333333333333331</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -14410,11 +14412,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O9:O23)</f>
-        <v>0.33333333333333331</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -13548,7 +13548,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14115,21 +14115,25 @@
       <c r="E17" s="59">
         <v>0.5</v>
       </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="F17" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G17" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="H17" s="58"/>
       <c r="I17" s="58"/>
       <c r="J17" s="58"/>
       <c r="K17" s="322"/>
       <c r="L17" s="100">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.31249999999999994</v>
       </c>
       <c r="M17" s="75"/>
       <c r="N17" s="101"/>
       <c r="O17" s="100">
         <f t="shared" si="1"/>
-        <v>0.16666666666666669</v>
+        <v>0.31249999999999994</v>
       </c>
       <c r="P17" s="40"/>
       <c r="R17" s="2"/>
@@ -14222,11 +14226,11 @@
       </c>
       <c r="P20" s="155">
         <f>SUM(O14:O20)</f>
-        <v>0.83333333333333326</v>
+        <v>0.97916666666666652</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>20</v>
+        <v>23.499999999999996</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -14412,11 +14416,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O9:O23)</f>
-        <v>0.83333333333333326</v>
+        <v>0.97916666666666652</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>20</v>
+        <v>23.499999999999996</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="340" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="400" yWindow="280" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1-12-2018" sheetId="77" r:id="rId1"/>
@@ -13548,7 +13548,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14146,8 +14146,12 @@
       <c r="C18" s="63">
         <v>43230</v>
       </c>
-      <c r="D18" s="158"/>
-      <c r="E18" s="59"/>
+      <c r="D18" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E18" s="59">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="F18" s="59"/>
       <c r="G18" s="59"/>
       <c r="H18" s="58"/>
@@ -14156,13 +14160,13 @@
       <c r="K18" s="322"/>
       <c r="L18" s="100">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.18750000000000006</v>
       </c>
       <c r="M18" s="75"/>
       <c r="N18" s="101"/>
       <c r="O18" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.18750000000000006</v>
       </c>
       <c r="P18" s="40"/>
       <c r="R18" s="2"/>
@@ -14226,11 +14230,11 @@
       </c>
       <c r="P20" s="155">
         <f>SUM(O14:O20)</f>
-        <v>0.97916666666666652</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>23.499999999999996</v>
+        <v>27.999999999999996</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -14416,11 +14420,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O9:O23)</f>
-        <v>0.97916666666666652</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>23.499999999999996</v>
+        <v>27.999999999999996</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -13547,8 +13547,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14179,8 +14179,12 @@
       <c r="C19" s="63">
         <v>43231</v>
       </c>
-      <c r="D19" s="158"/>
-      <c r="E19" s="59"/>
+      <c r="D19" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E19" s="59">
+        <v>0.5</v>
+      </c>
       <c r="F19" s="59"/>
       <c r="G19" s="59"/>
       <c r="H19" s="58"/>
@@ -14189,13 +14193,13 @@
       <c r="K19" s="322"/>
       <c r="L19" s="100">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="M19" s="75"/>
       <c r="N19" s="101"/>
       <c r="O19" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="P19" s="41" t="s">
         <v>19</v>
@@ -14230,11 +14234,11 @@
       </c>
       <c r="P20" s="155">
         <f>SUM(O14:O20)</f>
-        <v>1.1666666666666665</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>27.999999999999996</v>
+        <v>32</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -14420,11 +14424,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O9:O23)</f>
-        <v>1.1666666666666665</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>27.999999999999996</v>
+        <v>32</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="280" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="540" yWindow="160" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1-12-2018" sheetId="77" r:id="rId1"/>
@@ -13547,8 +13547,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14281,23 +14281,31 @@
       <c r="C22" s="6">
         <v>43234</v>
       </c>
-      <c r="D22" s="295"/>
-      <c r="E22" s="296"/>
-      <c r="F22" s="296"/>
-      <c r="G22" s="296"/>
+      <c r="D22" s="295">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E22" s="296">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F22" s="296">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G22" s="296">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="H22" s="296"/>
       <c r="I22" s="296"/>
       <c r="J22" s="296"/>
       <c r="K22" s="297"/>
       <c r="L22" s="96">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666674</v>
       </c>
       <c r="M22" s="78"/>
       <c r="N22" s="106"/>
       <c r="O22" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666674</v>
       </c>
       <c r="P22" s="39"/>
       <c r="R22" s="2"/>
@@ -14310,7 +14318,9 @@
       <c r="C23" s="7">
         <v>43235</v>
       </c>
-      <c r="D23" s="295"/>
+      <c r="D23" s="295">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="E23" s="296"/>
       <c r="F23" s="296"/>
       <c r="G23" s="296"/>
@@ -14320,13 +14330,13 @@
       <c r="K23" s="297"/>
       <c r="L23" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="M23" s="88"/>
       <c r="N23" s="144"/>
       <c r="O23" s="162">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="P23" s="39"/>
       <c r="R23" s="2"/>
@@ -14424,11 +14434,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O9:O23)</f>
-        <v>1.3333333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -15100,21 +15110,21 @@
       <c r="C8" s="245">
         <v>43234</v>
       </c>
-      <c r="D8" s="193" t="str">
+      <c r="D8" s="193">
         <f>IF(ISBLANK('5-31-2018'!D22), "", '5-31-2018'!D22)</f>
-        <v/>
-      </c>
-      <c r="E8" s="49" t="str">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E8" s="49">
         <f>IF(ISBLANK('5-31-2018'!E22), "", '5-31-2018'!E22)</f>
-        <v/>
-      </c>
-      <c r="F8" s="49" t="str">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F8" s="49">
         <f>IF(ISBLANK('5-31-2018'!F22), "", '5-31-2018'!F22)</f>
-        <v/>
-      </c>
-      <c r="G8" s="49" t="str">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G8" s="49">
         <f>IF(ISBLANK('5-31-2018'!G22), "", '5-31-2018'!G22)</f>
-        <v/>
+        <v>0.77083333333333337</v>
       </c>
       <c r="H8" s="49" t="str">
         <f>IF(ISBLANK('5-31-2018'!H22), "", '5-31-2018'!H22)</f>
@@ -15134,7 +15144,7 @@
       </c>
       <c r="L8" s="204">
         <f>'5-31-2018'!L22</f>
-        <v>0</v>
+        <v>0.16666666666666674</v>
       </c>
       <c r="M8" s="71" t="str">
         <f>IF(ISBLANK('5-31-2018'!M22), "", '5-31-2018'!M22)</f>
@@ -15146,7 +15156,7 @@
       </c>
       <c r="O8" s="119">
         <f>'5-31-2018'!O22</f>
-        <v>0</v>
+        <v>0.16666666666666674</v>
       </c>
       <c r="P8" s="39"/>
     </row>
@@ -15158,9 +15168,9 @@
       <c r="C9" s="246">
         <v>43235</v>
       </c>
-      <c r="D9" s="238" t="str">
+      <c r="D9" s="238">
         <f>IF(ISBLANK('5-31-2018'!D23), "", '5-31-2018'!D23)</f>
-        <v/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E9" s="53" t="str">
         <f>IF(ISBLANK('5-31-2018'!E23), "", '5-31-2018'!E23)</f>
@@ -15192,7 +15202,7 @@
       </c>
       <c r="L9" s="120">
         <f>'5-31-2018'!L23</f>
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="M9" s="263" t="str">
         <f>IF(ISBLANK('5-31-2018'!M23), "", '5-31-2018'!M23)</f>
@@ -15204,7 +15214,7 @@
       </c>
       <c r="O9" s="251">
         <f>'5-31-2018'!O23</f>
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="P9" s="39"/>
     </row>
@@ -15353,11 +15363,11 @@
       </c>
       <c r="P13" s="207">
         <f>SUM(O7:O13)</f>
-        <v>0</v>
+        <v>-0.16666666666666657</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>0</v>
+        <v>-3.9999999999999978</v>
       </c>
       <c r="R13" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -13547,8 +13547,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14183,7 +14183,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E19" s="59">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="F19" s="59"/>
       <c r="G19" s="59"/>
@@ -14193,13 +14193,13 @@
       <c r="K19" s="322"/>
       <c r="L19" s="100">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.22916666666666669</v>
       </c>
       <c r="M19" s="75"/>
       <c r="N19" s="101"/>
       <c r="O19" s="100">
         <f t="shared" si="1"/>
-        <v>0.16666666666666669</v>
+        <v>0.22916666666666669</v>
       </c>
       <c r="P19" s="41" t="s">
         <v>19</v>
@@ -14234,11 +14234,11 @@
       </c>
       <c r="P20" s="155">
         <f>SUM(O14:O20)</f>
-        <v>1.3333333333333333</v>
+        <v>1.3958333333333333</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>32</v>
+        <v>33.5</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -14285,7 +14285,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E22" s="296">
-        <v>0.64583333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F22" s="296">
         <v>0.70833333333333337</v>
@@ -14299,13 +14299,13 @@
       <c r="K22" s="297"/>
       <c r="L22" s="96">
         <f t="shared" si="0"/>
-        <v>0.16666666666666674</v>
+        <v>0.1875</v>
       </c>
       <c r="M22" s="78"/>
       <c r="N22" s="106"/>
       <c r="O22" s="161">
         <f t="shared" si="1"/>
-        <v>0.16666666666666674</v>
+        <v>0.1875</v>
       </c>
       <c r="P22" s="39"/>
       <c r="R22" s="2"/>
@@ -14321,7 +14321,9 @@
       <c r="D23" s="295">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E23" s="296"/>
+      <c r="E23" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F23" s="296"/>
       <c r="G23" s="296"/>
       <c r="H23" s="296"/>
@@ -14330,13 +14332,13 @@
       <c r="K23" s="297"/>
       <c r="L23" s="94">
         <f t="shared" si="0"/>
-        <v>-0.33333333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M23" s="88"/>
       <c r="N23" s="144"/>
       <c r="O23" s="162">
         <f t="shared" si="1"/>
-        <v>-0.33333333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P23" s="39"/>
       <c r="R23" s="2"/>
@@ -14434,11 +14436,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O9:O23)</f>
-        <v>1.1666666666666667</v>
+        <v>1.9166666666666665</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -15116,7 +15118,7 @@
       </c>
       <c r="E8" s="49">
         <f>IF(ISBLANK('5-31-2018'!E22), "", '5-31-2018'!E22)</f>
-        <v>0.64583333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F8" s="49">
         <f>IF(ISBLANK('5-31-2018'!F22), "", '5-31-2018'!F22)</f>
@@ -15144,7 +15146,7 @@
       </c>
       <c r="L8" s="204">
         <f>'5-31-2018'!L22</f>
-        <v>0.16666666666666674</v>
+        <v>0.1875</v>
       </c>
       <c r="M8" s="71" t="str">
         <f>IF(ISBLANK('5-31-2018'!M22), "", '5-31-2018'!M22)</f>
@@ -15156,7 +15158,7 @@
       </c>
       <c r="O8" s="119">
         <f>'5-31-2018'!O22</f>
-        <v>0.16666666666666674</v>
+        <v>0.1875</v>
       </c>
       <c r="P8" s="39"/>
     </row>
@@ -15172,9 +15174,9 @@
         <f>IF(ISBLANK('5-31-2018'!D23), "", '5-31-2018'!D23)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E9" s="53" t="str">
+      <c r="E9" s="53">
         <f>IF(ISBLANK('5-31-2018'!E23), "", '5-31-2018'!E23)</f>
-        <v/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F9" s="53" t="str">
         <f>IF(ISBLANK('5-31-2018'!F23), "", '5-31-2018'!F23)</f>
@@ -15202,7 +15204,7 @@
       </c>
       <c r="L9" s="120">
         <f>'5-31-2018'!L23</f>
-        <v>-0.33333333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M9" s="263" t="str">
         <f>IF(ISBLANK('5-31-2018'!M23), "", '5-31-2018'!M23)</f>
@@ -15214,7 +15216,7 @@
       </c>
       <c r="O9" s="251">
         <f>'5-31-2018'!O23</f>
-        <v>-0.33333333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P9" s="39"/>
     </row>
@@ -15363,11 +15365,11 @@
       </c>
       <c r="P13" s="207">
         <f>SUM(O7:O13)</f>
-        <v>-0.16666666666666657</v>
+        <v>0.52083333333333326</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>-3.9999999999999978</v>
+        <v>12.499999999999998</v>
       </c>
       <c r="R13" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="160" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="540" yWindow="160" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1-12-2018" sheetId="77" r:id="rId1"/>
@@ -13547,7 +13547,7 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -14894,8 +14894,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15228,8 +15228,12 @@
       <c r="C10" s="6">
         <v>43236</v>
       </c>
-      <c r="D10" s="295"/>
-      <c r="E10" s="296"/>
+      <c r="D10" s="295">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E10" s="296">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F10" s="296"/>
       <c r="G10" s="296"/>
       <c r="H10" s="296"/>
@@ -15253,13 +15257,13 @@
 IF(AND((H10-G10)&lt;TIME(0,30,0)),(K10-J10)+(I10-F10)+(E10-D10),
 IF(AND((F10-E10)&lt;TIME(0,30,0)),(K10-J10)+(I10-H10)+(G10-D10),
 ((E10-D10)+(G10-F10)+(I10-H10)+(K10-J10)))))))))))))))))</f>
-        <v>0</v>
+        <v>0.31250000000000006</v>
       </c>
       <c r="M10" s="77"/>
       <c r="N10" s="113"/>
       <c r="O10" s="170">
         <f>L10+N10</f>
-        <v>0</v>
+        <v>0.31250000000000006</v>
       </c>
       <c r="P10" s="39"/>
     </row>
@@ -15365,11 +15369,11 @@
       </c>
       <c r="P13" s="207">
         <f>SUM(O7:O13)</f>
-        <v>0.52083333333333326</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>12.499999999999998</v>
+        <v>20</v>
       </c>
       <c r="R13" s="2"/>
     </row>
@@ -15781,11 +15785,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O10:O25)</f>
-        <v>0</v>
+        <v>0.31250000000000006</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>0</v>
+        <v>7.5000000000000018</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -16253,7 +16257,7 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -14895,7 +14895,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15275,8 +15275,12 @@
       <c r="C11" s="6">
         <v>43237</v>
       </c>
-      <c r="D11" s="295"/>
-      <c r="E11" s="296"/>
+      <c r="D11" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E11" s="296">
+        <v>0.6875</v>
+      </c>
       <c r="F11" s="296"/>
       <c r="G11" s="296"/>
       <c r="H11" s="296"/>
@@ -15300,13 +15304,13 @@
 IF(AND((H11-G11)&lt;TIME(0,30,0)),(K11-J11)+(I11-F11)+(E11-D11),
 IF(AND((F11-E11)&lt;TIME(0,30,0)),(K11-J11)+(I11-H11)+(G11-D11),
 ((E11-D11)+(G11-F11)+(I11-H11)+(K11-J11)))))))))))))))))</f>
-        <v>0</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M11" s="78"/>
       <c r="N11" s="106"/>
       <c r="O11" s="161">
         <f t="shared" ref="O11:O25" si="1">L11+N11</f>
-        <v>0</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="P11" s="39"/>
     </row>
@@ -15369,11 +15373,11 @@
       </c>
       <c r="P13" s="207">
         <f>SUM(O7:O13)</f>
-        <v>0.83333333333333326</v>
+        <v>1.1875</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>20</v>
+        <v>28.5</v>
       </c>
       <c r="R13" s="2"/>
     </row>
@@ -15785,11 +15789,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O10:O25)</f>
-        <v>0.31250000000000006</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>7.5000000000000018</v>
+        <v>16</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -14894,8 +14894,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15322,8 +15322,12 @@
       <c r="C12" s="6">
         <v>43238</v>
       </c>
-      <c r="D12" s="295"/>
-      <c r="E12" s="296"/>
+      <c r="D12" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E12" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F12" s="296"/>
       <c r="G12" s="296"/>
       <c r="H12" s="296"/>
@@ -15332,13 +15336,13 @@
       <c r="K12" s="297"/>
       <c r="L12" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M12" s="88"/>
       <c r="N12" s="144"/>
       <c r="O12" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P12" s="55" t="s">
         <v>19</v>
@@ -15373,11 +15377,11 @@
       </c>
       <c r="P13" s="207">
         <f>SUM(O7:O13)</f>
-        <v>1.1875</v>
+        <v>1.5208333333333333</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>28.5</v>
+        <v>36.5</v>
       </c>
       <c r="R13" s="2"/>
     </row>
@@ -15789,11 +15793,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O10:O25)</f>
-        <v>0.66666666666666674</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -14895,7 +14895,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15424,8 +15424,12 @@
       <c r="C15" s="63">
         <v>43241</v>
       </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="59"/>
+      <c r="D15" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E15" s="59">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="F15" s="59"/>
       <c r="G15" s="59"/>
       <c r="H15" s="58"/>
@@ -15434,13 +15438,13 @@
       <c r="K15" s="322"/>
       <c r="L15" s="154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="M15" s="75"/>
       <c r="N15" s="101"/>
       <c r="O15" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="P15" s="39"/>
       <c r="R15" s="2"/>
@@ -15453,23 +15457,31 @@
       <c r="C16" s="63">
         <v>43242</v>
       </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
+      <c r="D16" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E16" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G16" s="59">
+        <v>0.6875</v>
+      </c>
       <c r="H16" s="58"/>
       <c r="I16" s="58"/>
       <c r="J16" s="58"/>
       <c r="K16" s="322"/>
       <c r="L16" s="154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M16" s="75"/>
       <c r="N16" s="101"/>
       <c r="O16" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P16" s="39"/>
       <c r="R16" s="2"/>
@@ -15591,11 +15603,11 @@
       </c>
       <c r="P20" s="207">
         <f>SUM(O14:O20)</f>
-        <v>0</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -15793,11 +15805,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O10:O25)</f>
-        <v>1</v>
+        <v>1.6041666666666665</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>24</v>
+        <v>38.5</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -14895,7 +14895,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15461,10 +15461,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E16" s="59">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F16" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="G16" s="59">
         <v>0.6875</v>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="160" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="540" yWindow="160" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1-12-2018" sheetId="77" r:id="rId1"/>
@@ -13547,7 +13547,7 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -14894,8 +14894,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15494,7 +15494,9 @@
       <c r="C17" s="63">
         <v>43243</v>
       </c>
-      <c r="D17" s="158"/>
+      <c r="D17" s="158">
+        <v>0.4375</v>
+      </c>
       <c r="E17" s="59"/>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
@@ -15504,13 +15506,13 @@
       <c r="K17" s="322"/>
       <c r="L17" s="154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.4375</v>
       </c>
       <c r="M17" s="75"/>
       <c r="N17" s="101"/>
       <c r="O17" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.4375</v>
       </c>
       <c r="P17" s="39"/>
       <c r="R17" s="2"/>
@@ -15603,11 +15605,11 @@
       </c>
       <c r="P20" s="207">
         <f>SUM(O14:O20)</f>
-        <v>0.60416666666666663</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>14.5</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -15805,11 +15807,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O10:O25)</f>
-        <v>1.6041666666666665</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>38.5</v>
+        <v>27.999999999999996</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -14895,7 +14895,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15497,7 +15497,9 @@
       <c r="D17" s="158">
         <v>0.4375</v>
       </c>
-      <c r="E17" s="59"/>
+      <c r="E17" s="59">
+        <v>0.6875</v>
+      </c>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="58"/>
@@ -15506,13 +15508,13 @@
       <c r="K17" s="322"/>
       <c r="L17" s="154">
         <f t="shared" si="0"/>
-        <v>-0.4375</v>
+        <v>0.25</v>
       </c>
       <c r="M17" s="75"/>
       <c r="N17" s="101"/>
       <c r="O17" s="100">
         <f t="shared" si="1"/>
-        <v>-0.4375</v>
+        <v>0.25</v>
       </c>
       <c r="P17" s="39"/>
       <c r="R17" s="2"/>
@@ -15605,11 +15607,11 @@
       </c>
       <c r="P20" s="207">
         <f>SUM(O14:O20)</f>
-        <v>0.16666666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>3.9999999999999991</v>
+        <v>20.5</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -15807,11 +15809,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O10:O25)</f>
-        <v>1.1666666666666665</v>
+        <v>1.8541666666666665</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>27.999999999999996</v>
+        <v>44.5</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -14895,7 +14895,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15527,23 +15527,31 @@
       <c r="C18" s="63">
         <v>43244</v>
       </c>
-      <c r="D18" s="158"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
+      <c r="D18" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E18" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F18" s="59">
+        <v>0.5625</v>
+      </c>
+      <c r="G18" s="59">
+        <v>0.6875</v>
+      </c>
       <c r="H18" s="58"/>
       <c r="I18" s="58"/>
       <c r="J18" s="58"/>
       <c r="K18" s="322"/>
       <c r="L18" s="154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M18" s="75"/>
       <c r="N18" s="101"/>
       <c r="O18" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P18" s="39"/>
       <c r="R18" s="2"/>
@@ -15607,11 +15615,11 @@
       </c>
       <c r="P20" s="207">
         <f>SUM(O14:O20)</f>
-        <v>0.85416666666666663</v>
+        <v>1.1875</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>20.5</v>
+        <v>28.5</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -15809,11 +15817,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O10:O25)</f>
-        <v>1.8541666666666665</v>
+        <v>2.1875</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>44.5</v>
+        <v>52.5</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -13547,7 +13547,7 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -14894,8 +14894,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15564,8 +15564,12 @@
       <c r="C19" s="63">
         <v>43245</v>
       </c>
-      <c r="D19" s="158"/>
-      <c r="E19" s="59"/>
+      <c r="D19" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E19" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F19" s="59"/>
       <c r="G19" s="59"/>
       <c r="H19" s="58"/>
@@ -15574,13 +15578,13 @@
       <c r="K19" s="322"/>
       <c r="L19" s="154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M19" s="75"/>
       <c r="N19" s="101"/>
       <c r="O19" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P19" s="55" t="s">
         <v>19</v>
@@ -15615,11 +15619,11 @@
       </c>
       <c r="P20" s="207">
         <f>SUM(O14:O20)</f>
-        <v>1.1875</v>
+        <v>1.5208333333333333</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>28.5</v>
+        <v>36.5</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -15662,8 +15666,12 @@
       <c r="C22" s="6">
         <v>43248</v>
       </c>
-      <c r="D22" s="295"/>
-      <c r="E22" s="296"/>
+      <c r="D22" s="295">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E22" s="296">
+        <v>0.5</v>
+      </c>
       <c r="F22" s="296"/>
       <c r="G22" s="296"/>
       <c r="H22" s="296"/>
@@ -15672,13 +15680,13 @@
       <c r="K22" s="297"/>
       <c r="L22" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="M22" s="78"/>
       <c r="N22" s="106"/>
       <c r="O22" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="P22" s="39"/>
       <c r="R22" s="2"/>
@@ -15691,8 +15699,12 @@
       <c r="C23" s="6">
         <v>43249</v>
       </c>
-      <c r="D23" s="295"/>
-      <c r="E23" s="296"/>
+      <c r="D23" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E23" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F23" s="296"/>
       <c r="G23" s="296"/>
       <c r="H23" s="296"/>
@@ -15701,13 +15713,13 @@
       <c r="K23" s="297"/>
       <c r="L23" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M23" s="88"/>
       <c r="N23" s="144"/>
       <c r="O23" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P23" s="39"/>
       <c r="R23" s="2"/>
@@ -15817,11 +15829,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O10:O25)</f>
-        <v>2.1875</v>
+        <v>2.8958333333333335</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>52.5</v>
+        <v>69.5</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -16507,13 +16519,13 @@
       <c r="C8" s="47">
         <v>43248</v>
       </c>
-      <c r="D8" s="48" t="str">
+      <c r="D8" s="48">
         <f>IF(ISBLANK('6-15-2018'!D22), "", '6-15-2018'!D22)</f>
-        <v/>
-      </c>
-      <c r="E8" s="49" t="str">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E8" s="49">
         <f>IF(ISBLANK('6-15-2018'!E22), "", '6-15-2018'!E22)</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="F8" s="49" t="str">
         <f>IF(ISBLANK('6-15-2018'!F22), "", '6-15-2018'!F22)</f>
@@ -16541,7 +16553,7 @@
       </c>
       <c r="L8" s="119">
         <f>'6-15-2018'!L22</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="M8" s="201" t="str">
         <f>IF(ISBLANK('6-15-2018'!M22), "", '6-15-2018'!M22)</f>
@@ -16553,7 +16565,7 @@
       </c>
       <c r="O8" s="119">
         <f>'6-15-2018'!O22</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="P8" s="39"/>
     </row>
@@ -16565,13 +16577,13 @@
       <c r="C9" s="47">
         <v>43249</v>
       </c>
-      <c r="D9" s="48" t="str">
+      <c r="D9" s="48">
         <f>IF(ISBLANK('6-15-2018'!D23), "", '6-15-2018'!D23)</f>
-        <v/>
-      </c>
-      <c r="E9" s="49" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E9" s="49">
         <f>IF(ISBLANK('6-15-2018'!E23), "", '6-15-2018'!E23)</f>
-        <v/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F9" s="49" t="str">
         <f>IF(ISBLANK('6-15-2018'!F23), "", '6-15-2018'!F23)</f>
@@ -16599,7 +16611,7 @@
       </c>
       <c r="L9" s="119">
         <f>'6-15-2018'!L23</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M9" s="201" t="str">
         <f>IF(ISBLANK('6-15-2018'!M23), "", '6-15-2018'!M23)</f>
@@ -16611,7 +16623,7 @@
       </c>
       <c r="O9" s="119">
         <f>'6-15-2018'!O23</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P9" s="39"/>
     </row>
@@ -16820,11 +16832,11 @@
       </c>
       <c r="P13" s="207">
         <f>SUM(O7:O13)</f>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R13" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -14895,7 +14895,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15732,8 +15732,12 @@
       <c r="C24" s="6">
         <v>43250</v>
       </c>
-      <c r="D24" s="295"/>
-      <c r="E24" s="296"/>
+      <c r="D24" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E24" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F24" s="296"/>
       <c r="G24" s="296"/>
       <c r="H24" s="296"/>
@@ -15742,13 +15746,13 @@
       <c r="K24" s="297"/>
       <c r="L24" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M24" s="88"/>
       <c r="N24" s="144"/>
       <c r="O24" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P24" s="39"/>
       <c r="R24" s="2"/>
@@ -15829,11 +15833,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O10:O25)</f>
-        <v>2.8958333333333335</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>69.5</v>
+        <v>77.5</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -16635,13 +16639,13 @@
       <c r="C10" s="47">
         <v>43250</v>
       </c>
-      <c r="D10" s="48" t="str">
+      <c r="D10" s="48">
         <f>IF(ISBLANK('6-15-2018'!D24), "", '6-15-2018'!D24)</f>
-        <v/>
-      </c>
-      <c r="E10" s="49" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E10" s="49">
         <f>IF(ISBLANK('6-15-2018'!E24), "", '6-15-2018'!E24)</f>
-        <v/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F10" s="49" t="str">
         <f>IF(ISBLANK('6-15-2018'!F24), "", '6-15-2018'!F24)</f>
@@ -16669,7 +16673,7 @@
       </c>
       <c r="L10" s="119">
         <f>'6-15-2018'!L24</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M10" s="201" t="str">
         <f>IF(ISBLANK('6-15-2018'!M24), "", '6-15-2018'!M24)</f>
@@ -16681,7 +16685,7 @@
       </c>
       <c r="O10" s="119">
         <f>'6-15-2018'!O24</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P10" s="39"/>
     </row>
@@ -16832,11 +16836,11 @@
       </c>
       <c r="P13" s="207">
         <f>SUM(O7:O13)</f>
-        <v>0.375</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="R13" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -14894,8 +14894,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15765,23 +15765,31 @@
       <c r="C25" s="7">
         <v>43251</v>
       </c>
-      <c r="D25" s="295"/>
-      <c r="E25" s="296"/>
-      <c r="F25" s="296"/>
-      <c r="G25" s="296"/>
+      <c r="D25" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E25" s="296">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="296">
+        <v>0.625</v>
+      </c>
+      <c r="G25" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="H25" s="296"/>
       <c r="I25" s="296"/>
       <c r="J25" s="296"/>
       <c r="K25" s="297"/>
       <c r="L25" s="212">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="M25" s="88"/>
       <c r="N25" s="144"/>
       <c r="O25" s="162">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P25" s="55"/>
       <c r="R25" s="2"/>
@@ -15833,11 +15841,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O10:O25)</f>
-        <v>3.229166666666667</v>
+        <v>3.4375000000000004</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>77.5</v>
+        <v>82.500000000000014</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -16697,21 +16705,21 @@
       <c r="C11" s="66">
         <v>43251</v>
       </c>
-      <c r="D11" s="52" t="str">
+      <c r="D11" s="52">
         <f>IF(ISBLANK('6-15-2018'!D25), "", '6-15-2018'!D25)</f>
-        <v/>
-      </c>
-      <c r="E11" s="53" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E11" s="53">
         <f>IF(ISBLANK('6-15-2018'!E25), "", '6-15-2018'!E25)</f>
-        <v/>
-      </c>
-      <c r="F11" s="53" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="53">
         <f>IF(ISBLANK('6-15-2018'!F25), "", '6-15-2018'!F25)</f>
-        <v/>
-      </c>
-      <c r="G11" s="53" t="str">
+        <v>0.625</v>
+      </c>
+      <c r="G11" s="53">
         <f>IF(ISBLANK('6-15-2018'!G25), "", '6-15-2018'!G25)</f>
-        <v/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H11" s="53" t="str">
         <f>IF(ISBLANK('6-15-2018'!H25), "", '6-15-2018'!H25)</f>
@@ -16731,7 +16739,7 @@
       </c>
       <c r="L11" s="120">
         <f>'6-15-2018'!L25</f>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="M11" s="234" t="str">
         <f>IF(ISBLANK('6-15-2018'!M25), "", '6-15-2018'!M25)</f>
@@ -16743,7 +16751,7 @@
       </c>
       <c r="O11" s="120">
         <f>'6-15-2018'!O25</f>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P11" s="39"/>
     </row>
@@ -16836,11 +16844,11 @@
       </c>
       <c r="P13" s="207">
         <f>SUM(O7:O13)</f>
-        <v>0.70833333333333326</v>
+        <v>0.91666666666666652</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>17</v>
+        <v>21.999999999999996</v>
       </c>
       <c r="R13" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="160" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="540" yWindow="160" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="1-12-2018" sheetId="77" r:id="rId1"/>
@@ -14894,7 +14894,7 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -16313,8 +16313,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -16763,8 +16763,12 @@
       <c r="C12" s="159">
         <v>43252</v>
       </c>
-      <c r="D12" s="295"/>
-      <c r="E12" s="296"/>
+      <c r="D12" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E12" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F12" s="296"/>
       <c r="G12" s="296"/>
       <c r="H12" s="296"/>
@@ -16788,13 +16792,13 @@
 IF(AND((H12-G12)&lt;TIME(0,30,0)),(K12-J12)+(I12-F12)+(E12-D12),
 IF(AND((F12-E12)&lt;TIME(0,30,0)),(K12-J12)+(I12-H12)+(G12-D12),
 ((E12-D12)+(G12-F12)+(I12-H12)+(K12-J12)))))))))))))))))</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M12" s="77"/>
       <c r="N12" s="113"/>
       <c r="O12" s="95">
         <f>L12+N12</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P12" s="55" t="s">
         <v>19</v>
@@ -16844,11 +16848,11 @@
       </c>
       <c r="P13" s="207">
         <f>SUM(O7:O13)</f>
-        <v>0.91666666666666652</v>
+        <v>1.2499999999999998</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>21.999999999999996</v>
+        <v>29.999999999999993</v>
       </c>
       <c r="R13" s="2"/>
     </row>
@@ -16891,8 +16895,12 @@
       <c r="C15" s="249">
         <v>43255</v>
       </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="59"/>
+      <c r="D15" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E15" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F15" s="59"/>
       <c r="G15" s="59"/>
       <c r="H15" s="58"/>
@@ -16901,13 +16909,13 @@
       <c r="K15" s="322"/>
       <c r="L15" s="154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M15" s="75"/>
       <c r="N15" s="101"/>
       <c r="O15" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P15" s="40"/>
       <c r="R15" s="2"/>
@@ -17058,11 +17066,11 @@
       </c>
       <c r="P20" s="155">
         <f>SUM(O14:O20)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -17266,11 +17274,11 @@
       <c r="O27" s="425"/>
       <c r="P27" s="155">
         <f>SUM(O12:O26)</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -16313,8 +16313,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -16928,8 +16928,12 @@
       <c r="C16" s="249">
         <v>43256</v>
       </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="59"/>
+      <c r="D16" s="158">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E16" s="59">
+        <v>0.75</v>
+      </c>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
       <c r="H16" s="58"/>
@@ -16938,13 +16942,13 @@
       <c r="K16" s="322"/>
       <c r="L16" s="154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M16" s="75"/>
       <c r="N16" s="101"/>
       <c r="O16" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P16" s="40"/>
       <c r="R16" s="2"/>
@@ -16957,8 +16961,12 @@
       <c r="C17" s="249">
         <v>43257</v>
       </c>
-      <c r="D17" s="158"/>
-      <c r="E17" s="59"/>
+      <c r="D17" s="158">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E17" s="59">
+        <v>0.75</v>
+      </c>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="58"/>
@@ -16967,13 +16975,13 @@
       <c r="K17" s="322"/>
       <c r="L17" s="154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M17" s="75"/>
       <c r="N17" s="101"/>
       <c r="O17" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P17" s="40"/>
       <c r="R17" s="2"/>
@@ -16986,8 +16994,12 @@
       <c r="C18" s="249">
         <v>43258</v>
       </c>
-      <c r="D18" s="158"/>
-      <c r="E18" s="59"/>
+      <c r="D18" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E18" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F18" s="59"/>
       <c r="G18" s="59"/>
       <c r="H18" s="58"/>
@@ -16996,13 +17008,13 @@
       <c r="K18" s="322"/>
       <c r="L18" s="154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M18" s="75"/>
       <c r="N18" s="101"/>
       <c r="O18" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P18" s="40"/>
       <c r="R18" s="2"/>
@@ -17015,8 +17027,12 @@
       <c r="C19" s="249">
         <v>43259</v>
       </c>
-      <c r="D19" s="158"/>
-      <c r="E19" s="59"/>
+      <c r="D19" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E19" s="59">
+        <v>0.5</v>
+      </c>
       <c r="F19" s="59"/>
       <c r="G19" s="59"/>
       <c r="H19" s="58"/>
@@ -17025,13 +17041,13 @@
       <c r="K19" s="322"/>
       <c r="L19" s="154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="M19" s="75"/>
       <c r="N19" s="101"/>
       <c r="O19" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="P19" s="41" t="s">
         <v>19</v>
@@ -17066,11 +17082,11 @@
       </c>
       <c r="P20" s="155">
         <f>SUM(O14:O20)</f>
-        <v>0.33333333333333331</v>
+        <v>1.5</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -17274,11 +17290,11 @@
       <c r="O27" s="425"/>
       <c r="P27" s="155">
         <f>SUM(O12:O26)</f>
-        <v>0.66666666666666663</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -16313,8 +16313,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -17129,8 +17129,12 @@
       <c r="C22" s="159">
         <v>43262</v>
       </c>
-      <c r="D22" s="295"/>
-      <c r="E22" s="296"/>
+      <c r="D22" s="295">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E22" s="296">
+        <v>0.5</v>
+      </c>
       <c r="F22" s="296"/>
       <c r="G22" s="296"/>
       <c r="H22" s="296"/>
@@ -17139,13 +17143,13 @@
       <c r="K22" s="297"/>
       <c r="L22" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="M22" s="78"/>
       <c r="N22" s="106"/>
       <c r="O22" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="P22" s="39"/>
       <c r="R22" s="2"/>
@@ -17158,23 +17162,31 @@
       <c r="C23" s="159">
         <v>43263</v>
       </c>
-      <c r="D23" s="295"/>
-      <c r="E23" s="296"/>
-      <c r="F23" s="296"/>
-      <c r="G23" s="296"/>
+      <c r="D23" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E23" s="296">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F23" s="296">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G23" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="H23" s="296"/>
       <c r="I23" s="296"/>
       <c r="J23" s="296"/>
       <c r="K23" s="297"/>
       <c r="L23" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="M23" s="88"/>
       <c r="N23" s="144"/>
       <c r="O23" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="P23" s="39"/>
       <c r="R23" s="2"/>
@@ -17187,8 +17199,12 @@
       <c r="C24" s="159">
         <v>43264</v>
       </c>
-      <c r="D24" s="295"/>
-      <c r="E24" s="296"/>
+      <c r="D24" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E24" s="296">
+        <v>0.5</v>
+      </c>
       <c r="F24" s="296"/>
       <c r="G24" s="296"/>
       <c r="H24" s="296"/>
@@ -17197,13 +17213,13 @@
       <c r="K24" s="297"/>
       <c r="L24" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="M24" s="88"/>
       <c r="N24" s="144"/>
       <c r="O24" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="P24" s="39"/>
       <c r="R24" s="2"/>
@@ -17290,11 +17306,11 @@
       <c r="O27" s="425"/>
       <c r="P27" s="155">
         <f>SUM(O12:O26)</f>
-        <v>1.8333333333333333</v>
+        <v>2.3749999999999996</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>44</v>
+        <v>56.999999999999986</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -17965,13 +17981,13 @@
       <c r="C8" s="47">
         <v>43262</v>
       </c>
-      <c r="D8" s="48" t="str">
+      <c r="D8" s="48">
         <f>IF(ISBLANK('6-29-2018'!D22), "", '6-29-2018'!D22)</f>
-        <v/>
-      </c>
-      <c r="E8" s="49" t="str">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E8" s="49">
         <f>IF(ISBLANK('6-29-2018'!E22), "", '6-29-2018'!E22)</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="F8" s="49" t="str">
         <f>IF(ISBLANK('6-29-2018'!F22), "", '6-29-2018'!F22)</f>
@@ -17999,7 +18015,7 @@
       </c>
       <c r="L8" s="119">
         <f>'6-29-2018'!L22</f>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="M8" s="201" t="str">
         <f>IF(ISBLANK('6-29-2018'!M22), "", '6-29-2018'!M22)</f>
@@ -18011,7 +18027,7 @@
       </c>
       <c r="O8" s="119">
         <f>'6-29-2018'!O22</f>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="P8" s="39"/>
     </row>
@@ -18023,21 +18039,21 @@
       <c r="C9" s="47">
         <v>43263</v>
       </c>
-      <c r="D9" s="48" t="str">
+      <c r="D9" s="48">
         <f>IF(ISBLANK('6-29-2018'!D23), "", '6-29-2018'!D23)</f>
-        <v/>
-      </c>
-      <c r="E9" s="49" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E9" s="49">
         <f>IF(ISBLANK('6-29-2018'!E23), "", '6-29-2018'!E23)</f>
-        <v/>
-      </c>
-      <c r="F9" s="49" t="str">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F9" s="49">
         <f>IF(ISBLANK('6-29-2018'!F23), "", '6-29-2018'!F23)</f>
-        <v/>
-      </c>
-      <c r="G9" s="49" t="str">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G9" s="49">
         <f>IF(ISBLANK('6-29-2018'!G23), "", '6-29-2018'!G23)</f>
-        <v/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H9" s="49" t="str">
         <f>IF(ISBLANK('6-29-2018'!H23), "", '6-29-2018'!H23)</f>
@@ -18057,7 +18073,7 @@
       </c>
       <c r="L9" s="119">
         <f>'6-29-2018'!L23</f>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="M9" s="201" t="str">
         <f>IF(ISBLANK('6-29-2018'!M23), "", '6-29-2018'!M23)</f>
@@ -18069,7 +18085,7 @@
       </c>
       <c r="O9" s="119">
         <f>'6-29-2018'!O23</f>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="P9" s="39"/>
     </row>
@@ -18081,13 +18097,13 @@
       <c r="C10" s="47">
         <v>43264</v>
       </c>
-      <c r="D10" s="48" t="str">
+      <c r="D10" s="48">
         <f>IF(ISBLANK('6-29-2018'!D24), "", '6-29-2018'!D24)</f>
-        <v/>
-      </c>
-      <c r="E10" s="49" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E10" s="49">
         <f>IF(ISBLANK('6-29-2018'!E24), "", '6-29-2018'!E24)</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="F10" s="49" t="str">
         <f>IF(ISBLANK('6-29-2018'!F24), "", '6-29-2018'!F24)</f>
@@ -18115,7 +18131,7 @@
       </c>
       <c r="L10" s="119">
         <f>'6-29-2018'!L24</f>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="M10" s="201" t="str">
         <f>IF(ISBLANK('6-29-2018'!M24), "", '6-29-2018'!M24)</f>
@@ -18127,7 +18143,7 @@
       </c>
       <c r="O10" s="119">
         <f>'6-29-2018'!O24</f>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="P10" s="39"/>
     </row>
@@ -18293,11 +18309,11 @@
       </c>
       <c r="P13" s="155">
         <f>SUM(O7:O13)</f>
-        <v>0</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>0</v>
+        <v>13.000000000000002</v>
       </c>
       <c r="R13" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -16314,7 +16314,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -17172,7 +17172,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="G23" s="296">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="H23" s="296"/>
       <c r="I23" s="296"/>
@@ -17180,13 +17180,13 @@
       <c r="K23" s="297"/>
       <c r="L23" s="95">
         <f t="shared" si="0"/>
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333343</v>
       </c>
       <c r="M23" s="88"/>
       <c r="N23" s="144"/>
       <c r="O23" s="96">
         <f t="shared" si="1"/>
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333343</v>
       </c>
       <c r="P23" s="39"/>
       <c r="R23" s="2"/>
@@ -17203,7 +17203,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E24" s="296">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F24" s="296"/>
       <c r="G24" s="296"/>
@@ -17213,13 +17213,13 @@
       <c r="K24" s="297"/>
       <c r="L24" s="95">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M24" s="88"/>
       <c r="N24" s="144"/>
       <c r="O24" s="96">
         <f t="shared" si="1"/>
-        <v>0.16666666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P24" s="39"/>
       <c r="R24" s="2"/>
@@ -17306,11 +17306,11 @@
       <c r="O27" s="425"/>
       <c r="P27" s="155">
         <f>SUM(O12:O26)</f>
-        <v>2.3749999999999996</v>
+        <v>2.5833333333333335</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>56.999999999999986</v>
+        <v>62</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="G9" s="49">
         <f>IF(ISBLANK('6-29-2018'!G23), "", '6-29-2018'!G23)</f>
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="H9" s="49" t="str">
         <f>IF(ISBLANK('6-29-2018'!H23), "", '6-29-2018'!H23)</f>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="L9" s="119">
         <f>'6-29-2018'!L23</f>
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333343</v>
       </c>
       <c r="M9" s="201" t="str">
         <f>IF(ISBLANK('6-29-2018'!M23), "", '6-29-2018'!M23)</f>
@@ -18085,7 +18085,7 @@
       </c>
       <c r="O9" s="119">
         <f>'6-29-2018'!O23</f>
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333343</v>
       </c>
       <c r="P9" s="39"/>
     </row>
@@ -18103,7 +18103,7 @@
       </c>
       <c r="E10" s="49">
         <f>IF(ISBLANK('6-29-2018'!E24), "", '6-29-2018'!E24)</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F10" s="49" t="str">
         <f>IF(ISBLANK('6-29-2018'!F24), "", '6-29-2018'!F24)</f>
@@ -18131,7 +18131,7 @@
       </c>
       <c r="L10" s="119">
         <f>'6-29-2018'!L24</f>
-        <v>0.16666666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M10" s="201" t="str">
         <f>IF(ISBLANK('6-29-2018'!M24), "", '6-29-2018'!M24)</f>
@@ -18143,7 +18143,7 @@
       </c>
       <c r="O10" s="119">
         <f>'6-29-2018'!O24</f>
-        <v>0.16666666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P10" s="39"/>
     </row>
@@ -18309,11 +18309,11 @@
       </c>
       <c r="P13" s="155">
         <f>SUM(O7:O13)</f>
-        <v>0.54166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>13.000000000000002</v>
+        <v>18</v>
       </c>
       <c r="R13" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -16055,6 +16055,7 @@
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="D26:O27"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="J10">
     <cfRule type="expression" dxfId="785" priority="46">
       <formula>AND(($J10-$I10)&lt;TIME(0,30,0),$K10&lt;&gt;"")</formula>
@@ -16296,7 +16297,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup scale="77" orientation="landscape"/>
+  <pageSetup scale="72" orientation="landscape"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -16314,7 +16315,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -17232,23 +17233,31 @@
       <c r="C25" s="159">
         <v>43265</v>
       </c>
-      <c r="D25" s="295"/>
-      <c r="E25" s="296"/>
-      <c r="F25" s="296"/>
-      <c r="G25" s="296"/>
+      <c r="D25" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E25" s="296">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="296">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G25" s="296">
+        <v>0.6875</v>
+      </c>
       <c r="H25" s="296"/>
       <c r="I25" s="296"/>
       <c r="J25" s="296"/>
       <c r="K25" s="297"/>
       <c r="L25" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M25" s="88"/>
       <c r="N25" s="144"/>
       <c r="O25" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P25" s="55"/>
       <c r="R25" s="2"/>
@@ -17306,11 +17315,11 @@
       <c r="O27" s="425"/>
       <c r="P27" s="155">
         <f>SUM(O12:O26)</f>
-        <v>2.5833333333333335</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -18155,21 +18164,21 @@
       <c r="C11" s="47">
         <v>43265</v>
       </c>
-      <c r="D11" s="48" t="str">
+      <c r="D11" s="48">
         <f>IF(ISBLANK('6-29-2018'!D25), "", '6-29-2018'!D25)</f>
-        <v/>
-      </c>
-      <c r="E11" s="49" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E11" s="49">
         <f>IF(ISBLANK('6-29-2018'!E25), "", '6-29-2018'!E25)</f>
-        <v/>
-      </c>
-      <c r="F11" s="49" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="49">
         <f>IF(ISBLANK('6-29-2018'!F25), "", '6-29-2018'!F25)</f>
-        <v/>
-      </c>
-      <c r="G11" s="49" t="str">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G11" s="49">
         <f>IF(ISBLANK('6-29-2018'!G25), "", '6-29-2018'!G25)</f>
-        <v/>
+        <v>0.6875</v>
       </c>
       <c r="H11" s="49" t="str">
         <f>IF(ISBLANK('6-29-2018'!H25), "", '6-29-2018'!H25)</f>
@@ -18189,7 +18198,7 @@
       </c>
       <c r="L11" s="119">
         <f>'6-29-2018'!L25</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M11" s="201" t="str">
         <f>IF(ISBLANK('6-29-2018'!M25), "", '6-29-2018'!M25)</f>
@@ -18201,7 +18210,7 @@
       </c>
       <c r="O11" s="119">
         <f>'6-29-2018'!O25</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P11" s="39"/>
     </row>
@@ -18309,11 +18318,11 @@
       </c>
       <c r="P13" s="155">
         <f>SUM(O7:O13)</f>
-        <v>0.75</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="R13" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -14894,7 +14894,7 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -16315,7 +16315,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -17270,8 +17270,12 @@
       <c r="C26" s="160">
         <v>43266</v>
       </c>
-      <c r="D26" s="295"/>
-      <c r="E26" s="296"/>
+      <c r="D26" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E26" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F26" s="296"/>
       <c r="G26" s="296"/>
       <c r="H26" s="296"/>
@@ -17280,13 +17284,13 @@
       <c r="K26" s="297"/>
       <c r="L26" s="212">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M26" s="88"/>
       <c r="N26" s="144"/>
       <c r="O26" s="94">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P26" s="285"/>
       <c r="R26" s="2"/>
@@ -17315,11 +17319,11 @@
       <c r="O27" s="425"/>
       <c r="P27" s="155">
         <f>SUM(O12:O26)</f>
-        <v>2.916666666666667</v>
+        <v>3.2500000000000004</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>70</v>
+        <v>78.000000000000014</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -17529,6 +17533,7 @@
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="D27:O27"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="J12">
     <cfRule type="expression" dxfId="737" priority="43">
       <formula>AND(($J12-$I12)&lt;TIME(0,30,0),$K12&lt;&gt;"")</formula>
@@ -17755,7 +17760,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup scale="78" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup scale="72" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -18222,13 +18227,13 @@
       <c r="C12" s="66">
         <v>43266</v>
       </c>
-      <c r="D12" s="52" t="str">
+      <c r="D12" s="52">
         <f>IF(ISBLANK('6-29-2018'!D26), "", '6-29-2018'!D26)</f>
-        <v/>
-      </c>
-      <c r="E12" s="53" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E12" s="53">
         <f>IF(ISBLANK('6-29-2018'!E26), "", '6-29-2018'!E26)</f>
-        <v/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F12" s="53" t="str">
         <f>IF(ISBLANK('6-29-2018'!F26), "", '6-29-2018'!F26)</f>
@@ -18256,7 +18261,7 @@
       </c>
       <c r="L12" s="120">
         <f>'6-29-2018'!L26</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M12" s="234" t="str">
         <f>IF(ISBLANK('6-29-2018'!M26), "", '6-29-2018'!M26)</f>
@@ -18268,7 +18273,7 @@
       </c>
       <c r="O12" s="120">
         <f>'6-29-2018'!O26</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P12" s="55" t="s">
         <v>19</v>
@@ -18318,11 +18323,11 @@
       </c>
       <c r="P13" s="155">
         <f>SUM(O7:O13)</f>
-        <v>1.0833333333333333</v>
+        <v>1.4166666666666665</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R13" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="160" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="540" yWindow="160" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1-12-2018" sheetId="77" r:id="rId1"/>
@@ -16314,8 +16314,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -17777,8 +17777,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18385,8 +18385,12 @@
       <c r="C15" s="249">
         <v>43269</v>
       </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="59"/>
+      <c r="D15" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E15" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F15" s="59"/>
       <c r="G15" s="59"/>
       <c r="H15" s="58"/>
@@ -18395,13 +18399,13 @@
       <c r="K15" s="322"/>
       <c r="L15" s="154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M15" s="359"/>
       <c r="N15" s="152"/>
       <c r="O15" s="102">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P15" s="39"/>
       <c r="R15" s="2"/>
@@ -18552,11 +18556,11 @@
       </c>
       <c r="P20" s="207">
         <f>SUM(O14:O20)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -18791,11 +18795,11 @@
       <c r="O28" s="25"/>
       <c r="P28" s="155">
         <f>SUM(O13:O27)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q28" s="110">
         <f>P28*24</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R28" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -17777,8 +17777,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18418,8 +18418,12 @@
       <c r="C16" s="249">
         <v>43270</v>
       </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="59"/>
+      <c r="D16" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E16" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
       <c r="H16" s="58"/>
@@ -18428,13 +18432,13 @@
       <c r="K16" s="322"/>
       <c r="L16" s="154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M16" s="359"/>
       <c r="N16" s="152"/>
       <c r="O16" s="102">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P16" s="39"/>
       <c r="R16" s="2"/>
@@ -18447,8 +18451,12 @@
       <c r="C17" s="249">
         <v>43271</v>
       </c>
-      <c r="D17" s="158"/>
-      <c r="E17" s="59"/>
+      <c r="D17" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E17" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="58"/>
@@ -18457,13 +18465,13 @@
       <c r="K17" s="322"/>
       <c r="L17" s="154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M17" s="359"/>
       <c r="N17" s="152"/>
       <c r="O17" s="102">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P17" s="39"/>
       <c r="R17" s="2"/>
@@ -18556,11 +18564,11 @@
       </c>
       <c r="P20" s="207">
         <f>SUM(O14:O20)</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -18795,11 +18803,11 @@
       <c r="O28" s="25"/>
       <c r="P28" s="155">
         <f>SUM(O13:O27)</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="110">
         <f>P28*24</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="R28" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -17778,7 +17778,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18484,8 +18484,12 @@
       <c r="C18" s="249">
         <v>43272</v>
       </c>
-      <c r="D18" s="158"/>
-      <c r="E18" s="59"/>
+      <c r="D18" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E18" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F18" s="59"/>
       <c r="G18" s="59"/>
       <c r="H18" s="58"/>
@@ -18494,13 +18498,13 @@
       <c r="K18" s="322"/>
       <c r="L18" s="154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M18" s="359"/>
       <c r="N18" s="152"/>
       <c r="O18" s="102">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P18" s="39"/>
       <c r="R18" s="2"/>
@@ -18513,8 +18517,12 @@
       <c r="C19" s="249">
         <v>43273</v>
       </c>
-      <c r="D19" s="158"/>
-      <c r="E19" s="59"/>
+      <c r="D19" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E19" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F19" s="59"/>
       <c r="G19" s="59"/>
       <c r="H19" s="58"/>
@@ -18523,13 +18531,13 @@
       <c r="K19" s="322"/>
       <c r="L19" s="154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M19" s="359"/>
       <c r="N19" s="152"/>
       <c r="O19" s="102">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P19" s="55" t="s">
         <v>19</v>
@@ -18564,11 +18572,11 @@
       </c>
       <c r="P20" s="207">
         <f>SUM(O14:O20)</f>
-        <v>1</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -18611,8 +18619,12 @@
       <c r="C22" s="159">
         <v>43276</v>
       </c>
-      <c r="D22" s="295"/>
-      <c r="E22" s="296"/>
+      <c r="D22" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E22" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F22" s="296"/>
       <c r="G22" s="296"/>
       <c r="H22" s="296"/>
@@ -18621,13 +18633,13 @@
       <c r="K22" s="308"/>
       <c r="L22" s="340">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M22" s="78"/>
       <c r="N22" s="106"/>
       <c r="O22" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P22" s="39"/>
       <c r="R22" s="2"/>
@@ -18640,23 +18652,31 @@
       <c r="C23" s="159">
         <v>43277</v>
       </c>
-      <c r="D23" s="295"/>
-      <c r="E23" s="296"/>
-      <c r="F23" s="296"/>
-      <c r="G23" s="296"/>
+      <c r="D23" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E23" s="296">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="296">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G23" s="296">
+        <v>0.6875</v>
+      </c>
       <c r="H23" s="296"/>
       <c r="I23" s="296"/>
       <c r="J23" s="296"/>
       <c r="K23" s="308"/>
       <c r="L23" s="340">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M23" s="88"/>
       <c r="N23" s="144"/>
       <c r="O23" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P23" s="39"/>
       <c r="R23" s="2"/>
@@ -18669,23 +18689,31 @@
       <c r="C24" s="159">
         <v>43278</v>
       </c>
-      <c r="D24" s="295"/>
-      <c r="E24" s="296"/>
-      <c r="F24" s="296"/>
-      <c r="G24" s="296"/>
+      <c r="D24" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E24" s="296">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="296">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G24" s="296">
+        <v>0.6875</v>
+      </c>
       <c r="H24" s="296"/>
       <c r="I24" s="296"/>
       <c r="J24" s="296"/>
       <c r="K24" s="308"/>
       <c r="L24" s="340">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M24" s="88"/>
       <c r="N24" s="144"/>
       <c r="O24" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P24" s="39"/>
       <c r="R24" s="2"/>
@@ -18778,11 +18806,11 @@
       </c>
       <c r="P27" s="155">
         <f>SUM(O21:O27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -18803,11 +18831,11 @@
       <c r="O28" s="25"/>
       <c r="P28" s="155">
         <f>SUM(O13:O27)</f>
-        <v>1</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="Q28" s="110">
         <f>P28*24</f>
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="R28" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -13547,7 +13547,7 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -16314,7 +16314,7 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -17777,8 +17777,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18726,8 +18726,12 @@
       <c r="C25" s="159">
         <v>43279</v>
       </c>
-      <c r="D25" s="295"/>
-      <c r="E25" s="296"/>
+      <c r="D25" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E25" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F25" s="296"/>
       <c r="G25" s="296"/>
       <c r="H25" s="296"/>
@@ -18736,13 +18740,13 @@
       <c r="K25" s="308"/>
       <c r="L25" s="340">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M25" s="88"/>
       <c r="N25" s="144"/>
       <c r="O25" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P25" s="55"/>
       <c r="R25" s="2"/>
@@ -18806,11 +18810,11 @@
       </c>
       <c r="P27" s="155">
         <f>SUM(O21:O27)</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -18831,11 +18835,11 @@
       <c r="O28" s="25"/>
       <c r="P28" s="155">
         <f>SUM(O13:O27)</f>
-        <v>2.6666666666666665</v>
+        <v>3</v>
       </c>
       <c r="Q28" s="110">
         <f>P28*24</f>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="R28" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -17778,7 +17778,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18759,8 +18759,12 @@
       <c r="C26" s="159">
         <v>43280</v>
       </c>
-      <c r="D26" s="295"/>
-      <c r="E26" s="296"/>
+      <c r="D26" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E26" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F26" s="296"/>
       <c r="G26" s="296"/>
       <c r="H26" s="296"/>
@@ -18769,13 +18773,13 @@
       <c r="K26" s="308"/>
       <c r="L26" s="340">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M26" s="88"/>
       <c r="N26" s="144"/>
       <c r="O26" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P26" s="55" t="s">
         <v>19</v>
@@ -18810,11 +18814,11 @@
       </c>
       <c r="P27" s="155">
         <f>SUM(O21:O27)</f>
-        <v>1.3333333333333333</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -18835,11 +18839,11 @@
       <c r="O28" s="25"/>
       <c r="P28" s="155">
         <f>SUM(O13:O27)</f>
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="Q28" s="110">
         <f>P28*24</f>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="R28" s="2"/>
     </row>
@@ -19031,6 +19035,7 @@
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A27"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F14">
     <cfRule type="expression" dxfId="692" priority="45">
       <formula>AND(($F14-$E14)&lt;TIME(0,30,0),$G14&lt;&gt;"")</formula>
@@ -19257,7 +19262,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup scale="78" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup scale="72" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="160" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="540" yWindow="140" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="1-12-2018" sheetId="77" r:id="rId1"/>
@@ -17777,7 +17777,7 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -19279,8 +19279,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19482,8 +19482,12 @@
       <c r="C8" s="6">
         <v>43283</v>
       </c>
-      <c r="D8" s="295"/>
-      <c r="E8" s="296"/>
+      <c r="D8" s="295">
+        <v>0.375</v>
+      </c>
+      <c r="E8" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F8" s="296"/>
       <c r="G8" s="296"/>
       <c r="H8" s="296"/>
@@ -19507,13 +19511,13 @@
 IF(AND((H8-G8)&lt;TIME(0,30,0)),(K8-J8)+(I8-F8)+(E8-D8),
 IF(AND((F8-E8)&lt;TIME(0,30,0)),(K8-J8)+(I8-H8)+(G8-D8),
 ((E8-D8)+(G8-F8)+(I8-H8)+(K8-J8)))))))))))))))))</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="M8" s="78"/>
       <c r="N8" s="106"/>
       <c r="O8" s="161">
         <f t="shared" ref="O8:O21" si="0">L8+N8</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="P8" s="39"/>
     </row>
@@ -19525,8 +19529,12 @@
       <c r="C9" s="6">
         <v>43284</v>
       </c>
-      <c r="D9" s="295"/>
-      <c r="E9" s="296"/>
+      <c r="D9" s="295">
+        <v>0.375</v>
+      </c>
+      <c r="E9" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F9" s="296"/>
       <c r="G9" s="296"/>
       <c r="H9" s="296"/>
@@ -19550,13 +19558,13 @@
 IF(AND((H9-G9)&lt;TIME(0,30,0)),(K9-J9)+(I9-F9)+(E9-D9),
 IF(AND((F9-E9)&lt;TIME(0,30,0)),(K9-J9)+(I9-H9)+(G9-D9),
 ((E9-D9)+(G9-F9)+(I9-H9)+(K9-J9)))))))))))))))))</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="M9" s="88"/>
       <c r="N9" s="144"/>
       <c r="O9" s="161">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="P9" s="39"/>
     </row>
@@ -19690,11 +19698,11 @@
       </c>
       <c r="P13" s="155">
         <f>SUM(O7:O13)</f>
-        <v>0</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>0</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="R13" s="2"/>
     </row>
@@ -20082,11 +20090,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O7:O21)</f>
-        <v>0</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>0</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -19280,7 +19280,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19604,8 +19604,12 @@
       <c r="C11" s="6">
         <v>43286</v>
       </c>
-      <c r="D11" s="295"/>
-      <c r="E11" s="296"/>
+      <c r="D11" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E11" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F11" s="296"/>
       <c r="G11" s="296"/>
       <c r="H11" s="296"/>
@@ -19614,13 +19618,13 @@
       <c r="K11" s="297"/>
       <c r="L11" s="363">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M11" s="88"/>
       <c r="N11" s="144"/>
       <c r="O11" s="161">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P11" s="39"/>
     </row>
@@ -19632,8 +19636,12 @@
       <c r="C12" s="6">
         <v>43287</v>
       </c>
-      <c r="D12" s="295"/>
-      <c r="E12" s="296"/>
+      <c r="D12" s="295">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E12" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F12" s="296"/>
       <c r="G12" s="296"/>
       <c r="H12" s="296"/>
@@ -19657,13 +19665,13 @@
 IF(AND((H12-G12)&lt;TIME(0,30,0)),(K12-J12)+(I12-F12)+(E12-D12),
 IF(AND((F12-E12)&lt;TIME(0,30,0)),(K12-J12)+(I12-H12)+(G12-D12),
 ((E12-D12)+(G12-F12)+(I12-H12)+(K12-J12)))))))))))))))))</f>
-        <v>0</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="M12" s="88"/>
       <c r="N12" s="144"/>
       <c r="O12" s="161">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="P12" s="55" t="s">
         <v>19</v>
@@ -19698,11 +19706,11 @@
       </c>
       <c r="P13" s="155">
         <f>SUM(O7:O13)</f>
-        <v>0.58333333333333326</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>13.999999999999998</v>
+        <v>27.999999999999996</v>
       </c>
       <c r="R13" s="2"/>
     </row>
@@ -20090,11 +20098,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O7:O21)</f>
-        <v>0.58333333333333326</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>13.999999999999998</v>
+        <v>27.999999999999996</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -19279,8 +19279,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19753,8 +19753,12 @@
       <c r="C15" s="63">
         <v>43290</v>
       </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="59"/>
+      <c r="D15" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E15" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F15" s="59"/>
       <c r="G15" s="59"/>
       <c r="H15" s="58"/>
@@ -19763,13 +19767,13 @@
       <c r="K15" s="322"/>
       <c r="L15" s="100">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M15" s="75"/>
       <c r="N15" s="101"/>
       <c r="O15" s="100">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P15" s="40"/>
       <c r="R15" s="2"/>
@@ -19782,8 +19786,12 @@
       <c r="C16" s="63">
         <v>43291</v>
       </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="59"/>
+      <c r="D16" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E16" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
       <c r="H16" s="58"/>
@@ -19792,13 +19800,13 @@
       <c r="K16" s="322"/>
       <c r="L16" s="100">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M16" s="75"/>
       <c r="N16" s="101"/>
       <c r="O16" s="100">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P16" s="40"/>
       <c r="R16" s="2"/>
@@ -19811,8 +19819,12 @@
       <c r="C17" s="63">
         <v>43292</v>
       </c>
-      <c r="D17" s="158"/>
-      <c r="E17" s="59"/>
+      <c r="D17" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E17" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="58"/>
@@ -19821,13 +19833,13 @@
       <c r="K17" s="322"/>
       <c r="L17" s="100">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M17" s="75"/>
       <c r="N17" s="101"/>
       <c r="O17" s="100">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P17" s="40"/>
       <c r="R17" s="2"/>
@@ -19920,11 +19932,11 @@
       </c>
       <c r="P20" s="155">
         <f>SUM(O14:O20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -20098,11 +20110,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O7:O21)</f>
-        <v>1.1666666666666665</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>27.999999999999996</v>
+        <v>52</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="140" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="540" yWindow="140" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="1-12-2018" sheetId="77" r:id="rId1"/>
@@ -17777,7 +17777,7 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -19279,8 +19279,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20567,8 +20567,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20828,8 +20828,12 @@
       <c r="C9" s="159">
         <v>43298</v>
       </c>
-      <c r="D9" s="295"/>
-      <c r="E9" s="296"/>
+      <c r="D9" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E9" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F9" s="296"/>
       <c r="G9" s="296"/>
       <c r="H9" s="296"/>
@@ -20853,13 +20857,13 @@
 IF(AND((H9-G9)&lt;TIME(0,30,0)),(K9-J9)+(I9-F9)+(E9-D9),
 IF(AND((F9-E9)&lt;TIME(0,30,0)),(K9-J9)+(I9-H9)+(G9-D9),
 ((E9-D9)+(G9-F9)+(I9-H9)+(K9-J9)))))))))))))))))</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M9" s="88"/>
       <c r="N9" s="144"/>
       <c r="O9" s="161">
         <f t="shared" ref="O9:O23" si="1">L9+N9</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P9" s="39"/>
     </row>
@@ -20871,8 +20875,12 @@
       <c r="C10" s="159">
         <v>43299</v>
       </c>
-      <c r="D10" s="295"/>
-      <c r="E10" s="296"/>
+      <c r="D10" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E10" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F10" s="296"/>
       <c r="G10" s="296"/>
       <c r="H10" s="296"/>
@@ -20881,13 +20889,13 @@
       <c r="K10" s="297"/>
       <c r="L10" s="363">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M10" s="88"/>
       <c r="N10" s="144"/>
       <c r="O10" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P10" s="39"/>
     </row>
@@ -20899,8 +20907,12 @@
       <c r="C11" s="159">
         <v>43300</v>
       </c>
-      <c r="D11" s="295"/>
-      <c r="E11" s="296"/>
+      <c r="D11" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E11" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F11" s="296"/>
       <c r="G11" s="296"/>
       <c r="H11" s="296"/>
@@ -20909,13 +20921,13 @@
       <c r="K11" s="297"/>
       <c r="L11" s="363">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M11" s="88"/>
       <c r="N11" s="144"/>
       <c r="O11" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P11" s="39"/>
     </row>
@@ -20927,8 +20939,12 @@
       <c r="C12" s="159">
         <v>43301</v>
       </c>
-      <c r="D12" s="295"/>
-      <c r="E12" s="296"/>
+      <c r="D12" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E12" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F12" s="296"/>
       <c r="G12" s="296"/>
       <c r="H12" s="296"/>
@@ -20937,13 +20953,13 @@
       <c r="K12" s="297"/>
       <c r="L12" s="363">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M12" s="88"/>
       <c r="N12" s="144"/>
       <c r="O12" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P12" s="55" t="s">
         <v>19</v>
@@ -20978,11 +20994,11 @@
       </c>
       <c r="P13" s="155">
         <f>SUM(O7:O13)</f>
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="R13" s="2"/>
     </row>
@@ -21382,11 +21398,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O8:O23)</f>
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -20568,7 +20568,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21041,8 +21041,12 @@
       <c r="C15" s="249">
         <v>43304</v>
       </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="59"/>
+      <c r="D15" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E15" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F15" s="59"/>
       <c r="G15" s="59"/>
       <c r="H15" s="58"/>
@@ -21051,13 +21055,13 @@
       <c r="K15" s="322"/>
       <c r="L15" s="220">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M15" s="75"/>
       <c r="N15" s="101"/>
       <c r="O15" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P15" s="40"/>
       <c r="R15" s="2"/>
@@ -21070,8 +21074,12 @@
       <c r="C16" s="249">
         <v>43305</v>
       </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="59"/>
+      <c r="D16" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E16" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
       <c r="H16" s="58"/>
@@ -21080,13 +21088,13 @@
       <c r="K16" s="322"/>
       <c r="L16" s="220">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M16" s="75"/>
       <c r="N16" s="101"/>
       <c r="O16" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P16" s="40"/>
       <c r="R16" s="2"/>
@@ -21099,8 +21107,12 @@
       <c r="C17" s="249">
         <v>43306</v>
       </c>
-      <c r="D17" s="158"/>
-      <c r="E17" s="59"/>
+      <c r="D17" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E17" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="58"/>
@@ -21109,13 +21121,13 @@
       <c r="K17" s="322"/>
       <c r="L17" s="220">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M17" s="75"/>
       <c r="N17" s="101"/>
       <c r="O17" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P17" s="40"/>
       <c r="R17" s="2"/>
@@ -21128,8 +21140,12 @@
       <c r="C18" s="249">
         <v>43307</v>
       </c>
-      <c r="D18" s="158"/>
-      <c r="E18" s="59"/>
+      <c r="D18" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E18" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F18" s="59"/>
       <c r="G18" s="59"/>
       <c r="H18" s="58"/>
@@ -21138,13 +21154,13 @@
       <c r="K18" s="322"/>
       <c r="L18" s="220">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M18" s="75"/>
       <c r="N18" s="101"/>
       <c r="O18" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P18" s="40"/>
       <c r="R18" s="2"/>
@@ -21157,8 +21173,12 @@
       <c r="C19" s="249">
         <v>43308</v>
       </c>
-      <c r="D19" s="158"/>
-      <c r="E19" s="59"/>
+      <c r="D19" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E19" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F19" s="59"/>
       <c r="G19" s="59"/>
       <c r="H19" s="58"/>
@@ -21167,13 +21187,13 @@
       <c r="K19" s="322"/>
       <c r="L19" s="220">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M19" s="75"/>
       <c r="N19" s="101"/>
       <c r="O19" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P19" s="41" t="s">
         <v>19</v>
@@ -21208,11 +21228,11 @@
       </c>
       <c r="P20" s="155">
         <f>SUM(O14:O20)</f>
-        <v>0</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -21398,11 +21418,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O8:O23)</f>
-        <v>1.3333333333333333</v>
+        <v>3</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="R27" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -20567,8 +20567,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21275,8 +21275,12 @@
       <c r="C22" s="159">
         <v>43311</v>
       </c>
-      <c r="D22" s="295"/>
-      <c r="E22" s="296"/>
+      <c r="D22" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E22" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F22" s="296"/>
       <c r="G22" s="296"/>
       <c r="H22" s="296"/>
@@ -21285,13 +21289,13 @@
       <c r="K22" s="297"/>
       <c r="L22" s="216">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M22" s="88"/>
       <c r="N22" s="144"/>
       <c r="O22" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P22" s="39"/>
       <c r="R22" s="2"/>
@@ -21418,11 +21422,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O8:O23)</f>
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -22108,13 +22112,13 @@
       <c r="C8" s="47">
         <v>43311</v>
       </c>
-      <c r="D8" s="48" t="str">
+      <c r="D8" s="48">
         <f>IF(ISBLANK('8-15-2018'!D22), "", '8-15-2018'!D22)</f>
-        <v/>
-      </c>
-      <c r="E8" s="49" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E8" s="49">
         <f>IF(ISBLANK('8-15-2018'!E22), "", '8-15-2018'!E22)</f>
-        <v/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F8" s="49" t="str">
         <f>IF(ISBLANK('8-15-2018'!F22), "", '8-15-2018'!F22)</f>
@@ -22142,7 +22146,7 @@
       </c>
       <c r="L8" s="204">
         <f>'8-15-2018'!L22</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M8" s="201" t="str">
         <f>IF(ISBLANK('8-15-2018'!M22), "", '8-15-2018'!M22)</f>
@@ -22154,7 +22158,7 @@
       </c>
       <c r="O8" s="119">
         <f>'8-15-2018'!O22</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P8" s="39"/>
     </row>
@@ -22361,11 +22365,11 @@
       </c>
       <c r="P13" s="155">
         <f>SUM(O7:O13)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R13" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -20567,8 +20567,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21308,8 +21308,12 @@
       <c r="C23" s="160">
         <v>43312</v>
       </c>
-      <c r="D23" s="295"/>
-      <c r="E23" s="296"/>
+      <c r="D23" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E23" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F23" s="296"/>
       <c r="G23" s="296"/>
       <c r="H23" s="296"/>
@@ -21318,13 +21322,13 @@
       <c r="K23" s="297"/>
       <c r="L23" s="216">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M23" s="83"/>
       <c r="N23" s="135"/>
       <c r="O23" s="162">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P23" s="39"/>
       <c r="R23" s="2"/>
@@ -21422,11 +21426,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O8:O23)</f>
-        <v>3.3333333333333335</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -21636,6 +21640,7 @@
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="D24:O27"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="J8">
     <cfRule type="expression" dxfId="602" priority="46">
       <formula>AND(($J8-$I8)&lt;TIME(0,30,0),$K8&lt;&gt;"")</formula>
@@ -21877,7 +21882,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup scale="78" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup scale="72" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -22170,13 +22175,13 @@
       <c r="C9" s="66">
         <v>43312</v>
       </c>
-      <c r="D9" s="52" t="str">
+      <c r="D9" s="52">
         <f>IF(ISBLANK('8-15-2018'!D23), "", '8-15-2018'!D23)</f>
-        <v/>
-      </c>
-      <c r="E9" s="53" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E9" s="53">
         <f>IF(ISBLANK('8-15-2018'!E23), "", '8-15-2018'!E23)</f>
-        <v/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F9" s="53" t="str">
         <f>IF(ISBLANK('8-15-2018'!F23), "", '8-15-2018'!F23)</f>
@@ -22204,7 +22209,7 @@
       </c>
       <c r="L9" s="120">
         <f>'8-15-2018'!L23</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M9" s="234" t="str">
         <f>IF(ISBLANK('8-15-2018'!M23), "", '8-15-2018'!M23)</f>
@@ -22216,7 +22221,7 @@
       </c>
       <c r="O9" s="120">
         <f>'8-15-2018'!O23</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P9" s="39"/>
     </row>
@@ -22365,11 +22370,11 @@
       </c>
       <c r="P13" s="155">
         <f>SUM(O7:O13)</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R13" s="2"/>
     </row>

--- a/Brant_Timesheets/2018_Timesheets_Brant.xlsx
+++ b/Brant_Timesheets/2018_Timesheets_Brant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="140" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="540" yWindow="140" windowWidth="25040" windowHeight="13380" tabRatio="837" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="1-12-2018" sheetId="77" r:id="rId1"/>
@@ -20567,7 +20567,7 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -21899,8 +21899,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22233,8 +22233,12 @@
       <c r="C10" s="159">
         <v>43313</v>
       </c>
-      <c r="D10" s="295"/>
-      <c r="E10" s="296"/>
+      <c r="D10" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E10" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F10" s="296"/>
       <c r="G10" s="296"/>
       <c r="H10" s="296"/>
@@ -22258,13 +22262,13 @@
 IF(AND((H10-G10)&lt;TIME(0,30,0)),(K10-J10)+(I10-F10)+(E10-D10),
 IF(AND((F10-E10)&lt;TIME(0,30,0)),(K10-J10)+(I10-H10)+(G10-D10),
 ((E10-D10)+(G10-F10)+(I10-H10)+(K10-J10)))))))))))))))))</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M10" s="88"/>
       <c r="N10" s="144"/>
       <c r="O10" s="95">
         <f>L10+N10</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P10" s="39"/>
     </row>
@@ -22276,8 +22280,12 @@
       <c r="C11" s="159">
         <v>43314</v>
       </c>
-      <c r="D11" s="295"/>
-      <c r="E11" s="296"/>
+      <c r="D11" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E11" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F11" s="296"/>
       <c r="G11" s="296"/>
       <c r="H11" s="296"/>
@@ -22301,13 +22309,13 @@
 IF(AND((H11-G11)&lt;TIME(0,30,0)),(K11-J11)+(I11-F11)+(E11-D11),
 IF(AND((F11-E11)&lt;TIME(0,30,0)),(K11-J11)+(I11-H11)+(G11-D11),
 ((E11-D11)+(G11-F11)+(I11-H11)+(K11-J11)))))))))))))))))</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M11" s="88"/>
       <c r="N11" s="144"/>
       <c r="O11" s="96">
         <f t="shared" ref="O11:O24" si="1">L11+N11</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P11" s="39"/>
     </row>
@@ -22319,8 +22327,12 @@
       <c r="C12" s="159">
         <v>43315</v>
       </c>
-      <c r="D12" s="295"/>
-      <c r="E12" s="296"/>
+      <c r="D12" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E12" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F12" s="296"/>
       <c r="G12" s="296"/>
       <c r="H12" s="296"/>
@@ -22329,13 +22341,13 @@
       <c r="K12" s="297"/>
       <c r="L12" s="216">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M12" s="88"/>
       <c r="N12" s="144"/>
       <c r="O12" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P12" s="55" t="s">
         <v>19</v>
@@ -22370,11 +22382,11 @@
       </c>
       <c r="P13" s="155">
         <f>SUM(O7:O13)</f>
-        <v>0.66666666666666663</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="R13" s="2"/>
     </row>
@@ -22475,8 +22487,12 @@
       <c r="C17" s="249">
         <v>43320</v>
       </c>
-      <c r="D17" s="158"/>
-      <c r="E17" s="59"/>
+      <c r="D17" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E17" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="58"/>
@@ -22485,13 +22501,13 @@
       <c r="K17" s="322"/>
       <c r="L17" s="220">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M17" s="75"/>
       <c r="N17" s="101"/>
       <c r="O17" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P17" s="40"/>
       <c r="R17" s="2"/>
@@ -22504,8 +22520,12 @@
       <c r="C18" s="249">
         <v>43321</v>
       </c>
-      <c r="D18" s="158"/>
-      <c r="E18" s="59"/>
+      <c r="D18" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E18" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F18" s="59"/>
       <c r="G18" s="59"/>
       <c r="H18" s="58"/>
@@ -22514,13 +22534,13 @@
       <c r="K18" s="322"/>
       <c r="L18" s="220">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M18" s="75"/>
       <c r="N18" s="101"/>
       <c r="O18" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P18" s="40"/>
       <c r="R18" s="2"/>
@@ -22533,8 +22553,12 @@
       <c r="C19" s="249">
         <v>43322</v>
       </c>
-      <c r="D19" s="158"/>
-      <c r="E19" s="59"/>
+      <c r="D19" s="158">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E19" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F19" s="59"/>
       <c r="G19" s="59"/>
       <c r="H19" s="58"/>
@@ -22543,13 +22567,13 @@
       <c r="K19" s="322"/>
       <c r="L19" s="220">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M19" s="75"/>
       <c r="N19" s="101"/>
       <c r="O19" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P19" s="41" t="s">
         <v>19</v>
@@ -22584,11 +22608,11 @@
       </c>
       <c r="P20" s="155">
         <f>SUM(O14:O20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="110">
         <f>P20*24</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -22631,8 +22655,12 @@
       <c r="C22" s="159">
         <v>43325</v>
       </c>
-      <c r="D22" s="295"/>
-      <c r="E22" s="296"/>
+      <c r="D22" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E22" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F22" s="296"/>
       <c r="G22" s="296"/>
       <c r="H22" s="296"/>
@@ -22641,13 +22669,13 @@
       <c r="K22" s="308"/>
       <c r="L22" s="216">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M22" s="88"/>
       <c r="N22" s="144"/>
       <c r="O22" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P22" s="39"/>
       <c r="R22" s="2"/>
@@ -22660,8 +22688,12 @@
       <c r="C23" s="159">
         <v>43326</v>
       </c>
-      <c r="D23" s="295"/>
-      <c r="E23" s="296"/>
+      <c r="D23" s="295">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E23" s="296">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F23" s="296"/>
       <c r="G23" s="296"/>
       <c r="H23" s="296"/>
@@ -22670,13 +22702,13 @@
       <c r="K23" s="308"/>
       <c r="L23" s="216">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M23" s="88"/>
       <c r="N23" s="144"/>
       <c r="O23" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P23" s="39"/>
       <c r="R23" s="2"/>
@@ -22780,11 +22812,11 @@
       <c r="O27" s="416"/>
       <c r="P27" s="155">
         <f>SUM(O10:O24)</f>
-        <v>0</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="Q27" s="110">
         <f>P27*24</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -23455,13 +23487,13 @@
       <c r="C8" s="47">
         <v>43325</v>
       </c>
-      <c r="D8" s="48" t="str">
+      <c r="D8" s="48">
         <f>IF(ISBLANK('8-31-2018'!D22), "", '8-31-2018'!D22)</f>
-        <v/>
-      </c>
-      <c r="E8" s="49" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E8" s="49">
         <f>IF(ISBLANK('8-31-2018'!E22), "", '8-31-2018'!E22)</f>
-        <v/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F8" s="49" t="str">
         <f>IF(ISBLANK('8-31-2018'!F22), "", '8-31-2018'!F22)</f>
@@ -23489,7 +23521,7 @@
       </c>
       <c r="L8" s="204">
         <f>'8-31-2018'!L22</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M8" s="201" t="str">
         <f>IF(ISBLANK('8-31-2018'!M22), "", '8-31-2018'!M22)</f>
@@ -23501,7 +23533,7 @@
       </c>
       <c r="O8" s="119">
         <f>'8-31-2018'!O22</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P8" s="39"/>
     </row>
@@ -23513,13 +23545,13 @@
       <c r="C9" s="47">
         <v>43326</v>
       </c>
-      <c r="D9" s="48" t="str">
+      <c r="D9" s="48">
         <f>IF(ISBLANK('8-31-2018'!D23), "", '8-31-2018'!D23)</f>
-        <v/>
-      </c>
-      <c r="E9" s="49" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E9" s="49">
         <f>IF(ISBLANK('8-31-2018'!E23), "", '8-31-2018'!E23)</f>
-        <v/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F9" s="49" t="str">
         <f>IF(ISBLANK('8-31-2018'!F23), "", '8-31-2018'!F23)</f>
@@ -23547,7 +23579,7 @@
       </c>
       <c r="L9" s="204">
         <f>'8-31-2018'!L23</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M9" s="201" t="str">
         <f>IF(ISBLANK('8-31-2018'!M23), "", '8-31-2018'!M23)</f>
@@ -23559,7 +23591,7 @@
       </c>
       <c r="O9" s="119">
         <f>'8-31-2018'!O23</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P9" s="39"/>
     </row>
@@ -23738,11 +23770,11 @@
       </c>
       <c r="P13" s="155">
         <f>SUM(O7:O13)</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q13" s="110">
         <f>P13*24</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R13" s="2"/>
     </row>
